--- a/biology/Zoologie/Euryplacidae/Euryplacidae.xlsx
+++ b/biology/Zoologie/Euryplacidae/Euryplacidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euryplacidae sont une famille de crabes. Elle comprend 14 genres et 31 espèces actuels[1] et huit genres et quinze espèces fossiles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Euryplacidae sont une famille de crabes. Elle comprend 14 genres et 31 espèces actuels et huit genres et quinze espèces fossiles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eucrate De Haan, 1835
 Euryplax Stimpson, 1859
@@ -562,7 +576,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stimpson, 1871 : Preliminary report on the Crustacea dredged in the Gulf Stream in the Straits of Florida by L.F. de Pourtales, Assist. U. S. Coast Survey. Part I. Brachyura. Bulletin of the Museum of Comparative Zoölogy at Harvard College, vol. 2, p. 109–160.</t>
         </is>
@@ -592,7 +608,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17 p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
